--- a/Doc_R_markdown/RegionG2_Cat_Patch_Area.xlsx
+++ b/Doc_R_markdown/RegionG2_Cat_Patch_Area.xlsx
@@ -134,7 +134,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>RegionG2_Patch_Area</a:t>
+              <a:t>RegionGroup2_Patch_Area</a:t>
             </a:r>
           </a:p>
         </cx:rich>
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Doc_R_markdown/RegionG2_Cat_Patch_Area.xlsx
+++ b/Doc_R_markdown/RegionG2_Cat_Patch_Area.xlsx
@@ -49,13 +49,13 @@
     <t>1000000-10000000</t>
   </si>
   <si>
-    <t>1000000-100000000</t>
-  </si>
-  <si>
     <t>Patch_Area</t>
   </si>
   <si>
     <t>Frequency</t>
+  </si>
+  <si>
+    <t>&gt;=10000000</t>
   </si>
 </sst>
 </file>
@@ -171,12 +171,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr">
-                  <a:defRPr/>
+                  <a:defRPr sz="1100"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Patch Area</a:t>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Patch area  (ha)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </cx:rich>
           </cx:tx>
@@ -192,12 +193,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr">
-                  <a:defRPr/>
+                  <a:defRPr sz="1100"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Frequency</a:t>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Number of patches</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </cx:rich>
           </cx:tx>
@@ -214,12 +216,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr">
-                  <a:defRPr/>
+                  <a:defRPr sz="1100"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Percentage</a:t>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Proportion of patch number</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </cx:rich>
           </cx:tx>
@@ -1057,7 +1060,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1068,10 +1071,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1116,7 +1119,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>2</v>
